--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -148,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +197,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,10 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" style="1" customWidth="1"/>
@@ -514,7 +512,7 @@
     <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +534,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -556,7 +554,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -576,7 +574,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -596,7 +594,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -616,7 +614,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -632,7 +630,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -644,7 +642,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -656,7 +654,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -668,7 +666,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -680,7 +678,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -692,7 +690,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -704,7 +702,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -728,7 +726,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -740,7 +738,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -752,7 +750,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -764,7 +762,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -776,7 +774,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -788,7 +786,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -800,7 +798,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -812,7 +810,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -824,7 +822,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -836,7 +834,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -848,7 +846,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
